--- a/plots.xlsx
+++ b/plots.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ACC</t>
   </si>
@@ -60,26 +60,37 @@
     <t>Samples</t>
   </si>
   <si>
-    <t>CNN 20 Epochs</t>
+    <t>Random Guess</t>
   </si>
   <si>
-    <t>CNN 50 Epochs</t>
+    <t>naive, random guess, vanilla NN, CNN and CNN refined</t>
   </si>
   <si>
-    <t>Random Guess</t>
+    <t>Vanilla NN</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>CNN Refined</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,9 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -246,9 +259,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>benchmark!$B$2:$B$5</c:f>
+              <c:f>benchmark!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Naïve</c:v>
                 </c:pt>
@@ -256,20 +269,23 @@
                   <c:v>Random Guess</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CNN 20 Epochs</c:v>
+                  <c:v>Vanilla NN</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CNN 50 Epochs</c:v>
+                  <c:v>CNN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CNN Refined</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>benchmark!$C$2:$C$5</c:f>
+              <c:f>benchmark!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -277,10 +293,13 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61</c:v>
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -336,9 +355,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>benchmark!$B$2:$B$5</c:f>
+              <c:f>benchmark!$B$2:$B$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Naïve</c:v>
                 </c:pt>
@@ -346,31 +365,37 @@
                   <c:v>Random Guess</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CNN 20 Epochs</c:v>
+                  <c:v>Vanilla NN</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CNN 50 Epochs</c:v>
+                  <c:v>CNN</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CNN Refined</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>benchmark!$D$2:$D$5</c:f>
+              <c:f>benchmark!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.19</c:v>
+                  <c:v>1.19047619047619</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.76</c:v>
+                  <c:v>1.19047619047619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.95</c:v>
+                  <c:v>1.865671641791045</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.11864406779661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -386,11 +411,11 @@
         </c:dLbls>
         <c:gapWidth val="326"/>
         <c:overlap val="-58"/>
-        <c:axId val="939651648"/>
-        <c:axId val="946046016"/>
+        <c:axId val="-1980813840"/>
+        <c:axId val="-1980811520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="939651648"/>
+        <c:axId val="-1980813840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -435,7 +460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="946046016"/>
+        <c:crossAx val="-1980811520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -443,7 +468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="946046016"/>
+        <c:axId val="-1980811520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -504,7 +529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="939651648"/>
+        <c:crossAx val="-1980813840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -625,7 +650,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -950,6 +974,13 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
@@ -992,9 +1023,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2301,16 +2330,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>802764</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>149264</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>269678</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47036</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>203826</xdr:rowOff>
+      <xdr:rowOff>62716</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2630,10 +2659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G5"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2656,7 +2685,8 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
+        <f>1 / ((C2 * 0.2) + (1 - C2))</f>
         <v>1</v>
       </c>
       <c r="E2" s="1"/>
@@ -2665,35 +2695,55 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>0.2</v>
       </c>
-      <c r="D3">
-        <v>1.19</v>
+      <c r="D3" s="3">
+        <f>1 / ((C3 * 0.2) + (1 - C3))</f>
+        <v>1.1904761904761905</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
-        <v>0.54</v>
-      </c>
-      <c r="D4">
-        <v>1.76</v>
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D6" si="0">1 / ((C4 * 0.2) + (1 - C4))</f>
+        <v>1.1904761904761905</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8656716417910446</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1186440677966103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="D5">
-        <v>1.95</v>
       </c>
     </row>
   </sheetData>
